--- a/Downloads/JioSaavn Lite.xlsx
+++ b/Downloads/JioSaavn Lite.xlsx
@@ -557,10 +557,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2137,17 +2140,17 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Sakshi</t>
+          <t>Sudip</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Ankita</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Somesh</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Roopesh</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2162,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Amol</t>
+          <t>Gaurav1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Swati</t>
+          <t>Aparna</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -2181,17 +2184,17 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Ankita</t>
+          <t>Vijaya</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Atharv</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Abhisek</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Kalpesh</t>
         </is>
       </c>
     </row>
@@ -2203,17 +2206,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Atharv</t>
+          <t>Tanmay</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Aparna</t>
+          <t>Roopesh</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Gaurav1.D</t>
+          <t>Geeta</t>
         </is>
       </c>
     </row>
@@ -2225,17 +2228,17 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Pooja</t>
+          <t>Gaurav1.D</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Vijaya</t>
+          <t>Anushree</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Mitali</t>
+          <t>Amol</t>
         </is>
       </c>
     </row>
@@ -2247,17 +2250,17 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Anushree</t>
+          <t>Mitali</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Geeta</t>
+          <t>Vedant</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Vedant</t>
+          <t>Sakshi</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2272,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Sudip</t>
+          <t>Swati</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Gaurav1</t>
+          <t>Pooja</t>
         </is>
       </c>
       <c r="D8" s="2" t="n"/>
@@ -2287,12 +2290,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Tanmay</t>
+          <t>Khushboo</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Khushboo</t>
+          <t>Kalpesh</t>
         </is>
       </c>
       <c r="D9" s="2" t="n"/>
